--- a/ALGOS/CNN.xlsx
+++ b/ALGOS/CNN.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ML-Study\Notes\ALGOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387A1D57-08F7-459A-A494-7F01A032ADF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0F892C-348B-4A08-9F07-F1B6109685AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PytorchImpl" sheetId="1" r:id="rId1"/>
+    <sheet name="TensorFlow" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="151">
   <si>
     <r>
       <t>import</t>
@@ -8396,6 +8397,2556 @@
   </si>
   <si>
     <t xml:space="preserve">        #in-channel, out-channel,kernal/filter size</t>
+  </si>
+  <si>
+    <r>
+      <t>os</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>environ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'TF_CPP_MIN_LOG_LEVEL'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'2'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>tensorflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>tf</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>tensorflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>keras</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>tensorflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.keras </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> layers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>cifar10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>keras</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>datasets</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>cifar10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>train_images</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>train_labels</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>), (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>test_images</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>test_labels</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>cifar10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>load_data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>train_images</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>shape</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># 50000, 32, 32, 3</t>
+    </r>
+  </si>
+  <si>
+    <t># Normalize: 0,255 -&gt; 0,1</t>
+  </si>
+  <si>
+    <r>
+      <t>train_images</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>test_images</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>train_images</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>255.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>test_images</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>255.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>class_names</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'airplane'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'automobile'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'bird'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'cat'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'deer'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>               </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'dog'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'frog'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'horse'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'ship'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'truck'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t># def show():</t>
+  </si>
+  <si>
+    <t>#     plt.figure(figsize=(10,10))</t>
+  </si>
+  <si>
+    <t>#     for i in range(16):</t>
+  </si>
+  <si>
+    <t>#         plt.subplot(4,4,i+1)</t>
+  </si>
+  <si>
+    <t>#         plt.xticks([])</t>
+  </si>
+  <si>
+    <t>#         plt.yticks([])</t>
+  </si>
+  <si>
+    <t>#         plt.grid(False)</t>
+  </si>
+  <si>
+    <t>#         plt.imshow(train_images[i], cmap=plt.cm.binary)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#         # The CIFAR labels happen to be arrays, </t>
+  </si>
+  <si>
+    <t>#         # which is why you need the extra index</t>
+  </si>
+  <si>
+    <t>#         plt.xlabel(class_names[train_labels[i][0]])</t>
+  </si>
+  <si>
+    <t>#     plt.show()</t>
+  </si>
+  <si>
+    <t># show()</t>
+  </si>
+  <si>
+    <t># model...</t>
+  </si>
+  <si>
+    <r>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>keras</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>models</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Sequential</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(layers.Conv2D(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>strides</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>padding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"valid"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>activation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'relu'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input_shape</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(layers.MaxPool2D((</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(layers.Conv2D(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>activation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'relu'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(layers.Flatten())</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(layers.Dense(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>activation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'relu'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(layers.Dense(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>summary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>())</t>
+    </r>
+  </si>
+  <si>
+    <t>#import sys; sys.exit()</t>
+  </si>
+  <si>
+    <t># loss and optimizer</t>
+  </si>
+  <si>
+    <r>
+      <t>loss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>keras</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>losses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>SparseCategoricalCrossentropy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from_logits</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>optim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>keras</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>optimizers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Adam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>lr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>metrics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"accuracy"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>compile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>optimizer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>optim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>loss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>loss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>metrics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>metrics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t># training</t>
+  </si>
+  <si>
+    <r>
+      <t>batch_size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>64</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>epochs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>train_images</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>train_labels</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>epochs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>epochs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>batch_size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>batch_size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>verbose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t># evaulate</t>
+  </si>
+  <si>
+    <r>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>evaluate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>test_images</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>test_labels</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>batch_size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>batch_size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>verbose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -8477,7 +11028,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8493,6 +11044,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8546,7 +11103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -8591,6 +11148,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8924,7 +11499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:B135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
@@ -9559,4 +12134,317 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAD358E-1FB6-4C58-B01C-F96E5996BC52}">
+  <dimension ref="B1:B65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="127.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="19"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="3"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>